--- a/pythonProject5/testdata/Book6.xlsx
+++ b/pythonProject5/testdata/Book6.xlsx
@@ -1,48 +1,93 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikub\PycharmProjects\pythonProject5\testdata\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="15345" windowHeight="5235" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="5235"/>
   </bookViews>
   <sheets>
-    <sheet name="shubham" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="shubham" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="162913" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+  <si>
+    <t>sr_No</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>condition</t>
+  </si>
+  <si>
+    <t>rahulshettyacademy</t>
+  </si>
+  <si>
+    <t>learning</t>
+  </si>
+  <si>
+    <t>+</t>
+  </si>
+  <si>
+    <t>rahulshefer</t>
+  </si>
+  <si>
+    <t>Password123</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>nikhil</t>
+  </si>
+  <si>
+    <t>rth</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial Unicode MS"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
-      <sz val="10"/>
     </font>
     <font>
+      <sz val="10"/>
       <name val="Segoe UI"/>
       <family val="2"/>
-      <sz val="10"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -67,85 +112,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -411,148 +397,87 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col width="27.42578125" customWidth="1" min="2" max="2"/>
-    <col width="34.7109375" customWidth="1" min="3" max="3"/>
+    <col min="2" max="2" width="27.42578125" customWidth="1"/>
+    <col min="3" max="3" width="34.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>sr_No</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>username</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>password</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>condition</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Test Result</t>
-        </is>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="2" spans="1:4">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="inlineStr">
-        <is>
-          <t>rahulshettyacademy</t>
-        </is>
-      </c>
-      <c r="C2" s="2" t="inlineStr">
-        <is>
-          <t>learning</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>+</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
+      <c r="B2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
+    <row r="3" spans="1:4">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>rahulshefer</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Password123</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
+    <row r="4" spans="1:4">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>rahulshettyacademy</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>nikhil</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
+    <row r="5" spans="1:4">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="inlineStr">
-        <is>
-          <t>rahulshettyacademy</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>rth</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>Pass</t>
-        </is>
+      <c r="B5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -562,18 +487,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/pythonProject5/testdata/Book6.xlsx
+++ b/pythonProject5/testdata/Book6.xlsx
@@ -1,93 +1,48 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nikub\PycharmProjects\pythonProject5\testdata\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="5235"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="15345" windowHeight="5235" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="shubham" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="shubham" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
-  <si>
-    <t>sr_No</t>
-  </si>
-  <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>condition</t>
-  </si>
-  <si>
-    <t>rahulshettyacademy</t>
-  </si>
-  <si>
-    <t>learning</t>
-  </si>
-  <si>
-    <t>+</t>
-  </si>
-  <si>
-    <t>rahulshefer</t>
-  </si>
-  <si>
-    <t>Password123</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>nikhil</t>
-  </si>
-  <si>
-    <t>rth</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="4">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <name val="Arial Unicode MS"/>
       <sz val="10"/>
-      <name val="Arial Unicode MS"/>
     </font>
     <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <sz val="10"/>
     </font>
     <font>
-      <sz val="10"/>
       <name val="Segoe UI"/>
       <family val="2"/>
+      <sz val="10"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -112,26 +67,85 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -397,87 +411,149 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col min="2" max="2" width="27.42578125" customWidth="1"/>
-    <col min="3" max="3" width="34.7109375" customWidth="1"/>
+    <col width="27.42578125" customWidth="1" min="2" max="2"/>
+    <col width="34.7109375" customWidth="1" min="3" max="3"/>
+    <col width="20.140625" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>sr_No</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>username</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>password</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>condition</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Test Result</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>rahulshettyacademy</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>learning</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>+</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>rahulshefer</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Password123</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
         <v>3</v>
       </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>rahulshettyacademy</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>nikhil</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
+      </c>
     </row>
-    <row r="2" spans="1:4">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
+    <row r="5">
+      <c r="A5" t="n">
         <v>4</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" t="s">
-        <v>9</v>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>rahulshettyacademy</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>rth</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Pass</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -487,12 +563,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
